--- a/data/trans_orig/IP7_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP7_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4581ABAC-9DA1-4A1E-B473-53331862F023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A05648B-6F89-4DCB-93CB-07ECEA2B8C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7627C5AE-F84D-4E70-8887-51CF79F67C0B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{01AA007B-CC83-4908-9AE4-69D8799CB810}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,15 +134,69 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
     <t>97,81%</t>
   </si>
   <si>
@@ -170,9 +224,6 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
     <t>3,0%</t>
   </si>
   <si>
@@ -191,57 +242,6 @@
     <t>4,84%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
     <t>96,47%</t>
   </si>
   <si>
@@ -347,6 +347,54 @@
     <t>4,2%</t>
   </si>
   <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
     <t>94,93%</t>
   </si>
   <si>
@@ -359,9 +407,6 @@
     <t>95,91%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
     <t>97,4%</t>
   </si>
   <si>
@@ -380,9 +425,6 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>4,09%</t>
   </si>
   <si>
@@ -395,48 +437,6 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
     <t>96,44%</t>
   </si>
   <si>
@@ -512,6 +512,54 @@
     <t>4,63%</t>
   </si>
   <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
     <t>97,21%</t>
   </si>
   <si>
@@ -554,54 +602,6 @@
     <t>3,93%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>97,91%</t>
   </si>
   <si>
@@ -695,6 +695,48 @@
     <t>4,62%</t>
   </si>
   <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
     <t>96,37%</t>
   </si>
   <si>
@@ -717,48 +759,6 @@
   </si>
   <si>
     <t>3,98%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
   </si>
   <si>
     <t>97,62%</t>
@@ -1198,7 +1198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADF8D13-22AB-4765-9DF0-1A9ADA5DDB16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724E89D3-614A-485C-9EDC-AFC7C39DF212}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1471,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>404</v>
+        <v>318</v>
       </c>
       <c r="D7" s="7">
-        <v>269616</v>
+        <v>209950</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1486,10 +1486,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>382</v>
+        <v>301</v>
       </c>
       <c r="I7" s="7">
-        <v>257628</v>
+        <v>203329</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1501,10 +1501,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>786</v>
+        <v>619</v>
       </c>
       <c r="N7" s="7">
-        <v>527244</v>
+        <v>413280</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1522,10 +1522,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>10571</v>
+        <v>8091</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1537,10 +1537,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>7975</v>
+        <v>1893</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1552,10 +1552,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>18546</v>
+        <v>9983</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1573,10 +1573,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>280187</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1588,10 +1588,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1603,10 +1603,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>814</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>545790</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1626,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="D10" s="7">
-        <v>209950</v>
+        <v>269616</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1641,10 +1641,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="I10" s="7">
-        <v>203329</v>
+        <v>257628</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1656,10 +1656,10 @@
         <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>619</v>
+        <v>786</v>
       </c>
       <c r="N10" s="7">
-        <v>413280</v>
+        <v>527244</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1677,10 +1677,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>8091</v>
+        <v>10571</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1692,10 +1692,10 @@
         <v>43</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>1893</v>
+        <v>7975</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1707,10 +1707,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N11" s="7">
-        <v>9983</v>
+        <v>18546</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1728,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>280187</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1743,10 +1743,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1758,10 +1758,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>814</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>545790</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1820,7 +1820,7 @@
         <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>74</v>
@@ -1874,7 +1874,7 @@
         <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C4D0F-DCA1-4087-B0F6-3F0A07D35913}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2026D5-051F-4218-B9E3-14F34A0AE8A3}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2217,25 +2217,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="D7" s="7">
-        <v>264172</v>
+        <v>234265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="7">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="I7" s="7">
-        <v>250106</v>
+        <v>224069</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>104</v>
@@ -2247,10 +2247,10 @@
         <v>106</v>
       </c>
       <c r="M7" s="7">
-        <v>745</v>
+        <v>638</v>
       </c>
       <c r="N7" s="7">
-        <v>514278</v>
+        <v>458334</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>107</v>
@@ -2268,25 +2268,25 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>8180</v>
+        <v>4780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>5569</v>
+        <v>3918</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>112</v>
@@ -2298,10 +2298,10 @@
         <v>114</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>13749</v>
+        <v>8698</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>115</v>
@@ -2319,10 +2319,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>272352</v>
+        <v>239045</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2334,10 +2334,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>255675</v>
+        <v>227987</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2349,10 +2349,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>765</v>
+        <v>650</v>
       </c>
       <c r="N9" s="7">
-        <v>528027</v>
+        <v>467032</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2372,25 +2372,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="D10" s="7">
-        <v>234265</v>
+        <v>264172</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H10" s="7">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="I10" s="7">
-        <v>224069</v>
+        <v>250106</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>120</v>
@@ -2399,22 +2399,22 @@
         <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="7">
+        <v>745</v>
+      </c>
+      <c r="N10" s="7">
+        <v>514278</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="7">
-        <v>638</v>
-      </c>
-      <c r="N10" s="7">
-        <v>458334</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,46 +2423,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>4780</v>
+        <v>8180</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>3918</v>
+        <v>5569</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>20</v>
+      </c>
+      <c r="N11" s="7">
+        <v>13749</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="7">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8698</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>131</v>
@@ -2474,10 +2474,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>331</v>
+        <v>401</v>
       </c>
       <c r="D12" s="7">
-        <v>239045</v>
+        <v>272352</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2489,10 +2489,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="I12" s="7">
-        <v>227987</v>
+        <v>255675</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2504,10 +2504,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>650</v>
+        <v>765</v>
       </c>
       <c r="N12" s="7">
-        <v>467032</v>
+        <v>528027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2533,7 +2533,7 @@
         <v>731120</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>132</v>
@@ -2548,7 +2548,7 @@
         <v>692551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>134</v>
@@ -2584,7 +2584,7 @@
         <v>18726</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>137</v>
@@ -2599,7 +2599,7 @@
         <v>16619</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>139</v>
@@ -2690,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A1829D-8503-408F-B0B3-EBEDD8474C4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A994951-E029-45BA-9907-8721DB233043}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2963,28 +2963,28 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D7" s="7">
-        <v>272399</v>
+        <v>248806</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>353</v>
+      </c>
+      <c r="I7" s="7">
+        <v>231056</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="H7" s="7">
-        <v>367</v>
-      </c>
-      <c r="I7" s="7">
-        <v>262031</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>160</v>
@@ -2993,19 +2993,19 @@
         <v>161</v>
       </c>
       <c r="M7" s="7">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="N7" s="7">
-        <v>534430</v>
+        <v>479862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,49 +3014,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>7824</v>
+        <v>1246</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>4974</v>
+        <v>2320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>12798</v>
+        <v>3566</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>280223</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3080,10 +3080,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="I9" s="7">
-        <v>267005</v>
+        <v>233376</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3095,10 +3095,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="N9" s="7">
-        <v>547228</v>
+        <v>483428</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3118,49 +3118,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D10" s="7">
-        <v>248806</v>
+        <v>272399</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="I10" s="7">
-        <v>231056</v>
+        <v>262031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="N10" s="7">
-        <v>479862</v>
+        <v>534430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,43 +3169,43 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>1246</v>
+        <v>7824</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>2320</v>
+        <v>4974</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>3566</v>
+        <v>12798</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>185</v>
@@ -3220,10 +3220,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>280223</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3235,10 +3235,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="I12" s="7">
-        <v>233376</v>
+        <v>267005</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3250,10 +3250,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="N12" s="7">
-        <v>483428</v>
+        <v>547228</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3309,7 +3309,7 @@
         <v>1412900</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>193</v>
@@ -3360,7 +3360,7 @@
         <v>28897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>201</v>
@@ -3436,7 +3436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA5558F-B926-4F2B-BDD1-65504682CAE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD9D5E9-D7D9-4075-8098-2B605F4E262B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3581,7 +3581,7 @@
         <v>207</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>417</v>
@@ -3629,7 +3629,7 @@
         <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>214</v>
@@ -3709,13 +3709,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>469</v>
+        <v>264</v>
       </c>
       <c r="D7" s="7">
-        <v>395192</v>
+        <v>199783</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>218</v>
@@ -3724,34 +3724,34 @@
         <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>449</v>
+        <v>275</v>
       </c>
       <c r="I7" s="7">
-        <v>339360</v>
+        <v>194133</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>918</v>
+        <v>539</v>
       </c>
       <c r="N7" s="7">
-        <v>734553</v>
+        <v>393918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,49 +3760,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>7518</v>
+        <v>5272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>12281</v>
+        <v>4134</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>19798</v>
+        <v>9405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,10 +3811,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3826,10 +3826,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>351641</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3841,10 +3841,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>942</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>754351</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3864,49 +3864,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>264</v>
+        <v>469</v>
       </c>
       <c r="D10" s="7">
-        <v>199783</v>
+        <v>395192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>275</v>
+        <v>449</v>
       </c>
       <c r="I10" s="7">
-        <v>194133</v>
+        <v>339360</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
-        <v>539</v>
+        <v>918</v>
       </c>
       <c r="N10" s="7">
-        <v>393918</v>
+        <v>734553</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,46 +3915,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>5272</v>
+        <v>7518</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>4134</v>
+        <v>12281</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N11" s="7">
-        <v>9405</v>
+        <v>19798</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>239</v>
@@ -3966,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3981,10 +3981,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>351641</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3996,10 +3996,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>942</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>754351</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4061,7 +4061,7 @@
         <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4109,7 @@
         <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>255</v>

--- a/data/trans_orig/IP7_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP7_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A05648B-6F89-4DCB-93CB-07ECEA2B8C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3F87F7-6B5C-4F42-AC7E-EAA87A46ED20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{01AA007B-CC83-4908-9AE4-69D8799CB810}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{620173DC-B895-4C3E-8873-BC1B3150D2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="316">
   <si>
     <t>Menores según si su salud general es regular o mala en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -68,745 +68,925 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,95%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>98,45%</t>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2015 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2015 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>96,54%</t>
   </si>
 </sst>
 </file>
@@ -817,7 +997,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -913,39 +1093,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -997,7 +1177,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1108,13 +1288,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1123,6 +1296,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1187,19 +1367,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724E89D3-614A-485C-9EDC-AFC7C39DF212}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA7D652-2861-4184-84F7-894FA03B81F2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1316,10 +1516,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>214910</v>
+        <v>2664</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1331,10 +1531,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>317</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>208419</v>
+        <v>1070</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1346,10 +1546,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>639</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>423329</v>
+        <v>3734</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1367,10 +1567,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7">
-        <v>6752</v>
+        <v>118716</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1382,10 +1582,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="I5" s="7">
-        <v>1777</v>
+        <v>105101</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1397,10 +1597,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="N5" s="7">
-        <v>8529</v>
+        <v>223817</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1418,10 +1618,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>221662</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1433,10 +1633,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1448,10 +1648,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>652</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>431858</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1471,10 +1671,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>209950</v>
+        <v>8801</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1486,10 +1686,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>301</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>203329</v>
+        <v>1970</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1501,10 +1701,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>619</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>413280</v>
+        <v>10771</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1522,10 +1722,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>8091</v>
+        <v>243456</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1537,10 +1737,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>376</v>
       </c>
       <c r="I8" s="7">
-        <v>1893</v>
+        <v>251235</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1552,10 +1752,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>743</v>
       </c>
       <c r="N8" s="7">
-        <v>9983</v>
+        <v>494691</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1573,10 +1773,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>252257</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1588,10 +1788,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1603,10 +1803,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>759</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>505462</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1626,49 +1826,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>404</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>269616</v>
+        <v>7924</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>382</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>257628</v>
+        <v>2700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>786</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>527244</v>
+        <v>10625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,49 +1877,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D11" s="7">
-        <v>10571</v>
+        <v>133591</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I11" s="7">
-        <v>7975</v>
+        <v>124848</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>28</v>
+        <v>387</v>
       </c>
       <c r="N11" s="7">
-        <v>18546</v>
+        <v>258438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>420</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>280187</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1743,10 +1943,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1758,10 +1958,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>814</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>545790</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1775,55 +1975,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1044</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>694476</v>
+        <v>6024</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>669376</v>
+        <v>5905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>2044</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>1363852</v>
+        <v>11930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,49 +2032,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="D14" s="7">
-        <v>25414</v>
+        <v>198714</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="I14" s="7">
-        <v>11645</v>
+        <v>188192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>56</v>
+        <v>576</v>
       </c>
       <c r="N14" s="7">
-        <v>37059</v>
+        <v>386905</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,55 +2083,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>308</v>
+      </c>
+      <c r="D15" s="7">
+        <v>204738</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>594</v>
+      </c>
+      <c r="N15" s="7">
+        <v>398835</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25414</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11645</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>56</v>
+      </c>
+      <c r="N16" s="7">
+        <v>37059</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1044</v>
+      </c>
+      <c r="D17" s="7">
+        <v>694476</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="7">
+        <v>669376</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2044</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1363852</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1082</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>719890</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2100</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1400911</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1944,8 +2305,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2026D5-051F-4218-B9E3-14F34A0AE8A3}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBDF839-E8B9-4F3A-B6AC-E9E2D537D177}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1961,7 +2322,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2062,49 +2423,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>328</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>232684</v>
+        <v>5118</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>328</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>218375</v>
+        <v>4755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
-        <v>656</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>451059</v>
+        <v>9873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,49 +2474,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="D5" s="7">
-        <v>5765</v>
+        <v>140157</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="I5" s="7">
-        <v>7133</v>
+        <v>142006</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="N5" s="7">
-        <v>12898</v>
+        <v>282163</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="D6" s="7">
-        <v>238449</v>
+        <v>145275</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2179,10 +2540,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="I6" s="7">
-        <v>225508</v>
+        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2194,10 +2555,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>676</v>
+        <v>425</v>
       </c>
       <c r="N6" s="7">
-        <v>463957</v>
+        <v>292036</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2217,49 +2578,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>324</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>234265</v>
+        <v>1997</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>314</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>224069</v>
+        <v>4826</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>638</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>458334</v>
+        <v>6823</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,49 +2629,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>4780</v>
+        <v>264048</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>3918</v>
+        <v>229939</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>698</v>
       </c>
       <c r="N8" s="7">
-        <v>8698</v>
+        <v>493987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,10 +2680,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="D9" s="7">
-        <v>239045</v>
+        <v>266045</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2334,10 +2695,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="I9" s="7">
-        <v>227987</v>
+        <v>234765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2349,10 +2710,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>650</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>467032</v>
+        <v>500810</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2372,49 +2733,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>389</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>264172</v>
+        <v>4887</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>356</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>250106</v>
+        <v>3513</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>745</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>514278</v>
+        <v>8400</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,49 +2784,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7">
-        <v>8180</v>
+        <v>153684</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>5569</v>
+        <v>153530</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="N11" s="7">
-        <v>13749</v>
+        <v>307214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,10 +2835,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>272352</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2489,10 +2850,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>255675</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2504,10 +2865,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>765</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>528027</v>
+        <v>315614</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2521,55 +2882,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1041</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>731120</v>
+        <v>6724</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
-        <v>998</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>692551</v>
+        <v>3526</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
-        <v>2039</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>1423670</v>
+        <v>10250</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,49 +2939,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>18726</v>
+        <v>173231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="I14" s="7">
-        <v>16619</v>
+        <v>167075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>52</v>
+        <v>492</v>
       </c>
       <c r="N14" s="7">
-        <v>35346</v>
+        <v>340306</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,55 +2990,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>265</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179955</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>242</v>
+      </c>
+      <c r="I15" s="7">
+        <v>170601</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>507</v>
+      </c>
+      <c r="N15" s="7">
+        <v>350556</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18726</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="7">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7">
+        <v>16619</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="7">
+        <v>52</v>
+      </c>
+      <c r="N16" s="7">
+        <v>35346</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1041</v>
+      </c>
+      <c r="D17" s="7">
+        <v>731120</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="7">
+        <v>998</v>
+      </c>
+      <c r="I17" s="7">
+        <v>692551</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2039</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1423670</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1069</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>749846</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1022</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>709170</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2091</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1459016</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2690,8 +3212,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A994951-E029-45BA-9907-8721DB233043}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674EA274-ABB8-491A-862E-50627A8F71BE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2707,7 +3229,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2808,49 +3330,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>309</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>205321</v>
+        <v>4542</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>314</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>193288</v>
+        <v>2362</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
-        <v>623</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>398609</v>
+        <v>6904</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,49 +3381,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="D5" s="7">
-        <v>6429</v>
+        <v>118854</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>6104</v>
+        <v>128567</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>385</v>
       </c>
       <c r="N5" s="7">
-        <v>12533</v>
+        <v>247421</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,10 +3432,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7">
-        <v>211750</v>
+        <v>123396</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2925,10 +3447,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>199392</v>
+        <v>130929</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2940,10 +3462,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>642</v>
+        <v>396</v>
       </c>
       <c r="N6" s="7">
-        <v>411142</v>
+        <v>254325</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2963,49 +3485,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>248806</v>
+        <v>2540</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
-        <v>353</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>231056</v>
+        <v>4833</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="M7" s="7">
-        <v>714</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>479862</v>
+        <v>7373</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,49 +3536,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>375</v>
       </c>
       <c r="D8" s="7">
-        <v>1246</v>
+        <v>254875</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>2320</v>
+        <v>203251</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>696</v>
       </c>
       <c r="N8" s="7">
-        <v>3566</v>
+        <v>458126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>257415</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3080,10 +3602,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="I9" s="7">
-        <v>233376</v>
+        <v>208084</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3095,10 +3617,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="N9" s="7">
-        <v>483428</v>
+        <v>465499</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3118,49 +3640,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>369</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>272399</v>
+        <v>4601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
-        <v>367</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>262031</v>
+        <v>2747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
-        <v>736</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>534430</v>
+        <v>7348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,49 +3691,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="D11" s="7">
-        <v>7824</v>
+        <v>183971</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="I11" s="7">
-        <v>4974</v>
+        <v>185477</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>524</v>
       </c>
       <c r="N11" s="7">
-        <v>12798</v>
+        <v>369448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>379</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>280223</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3235,10 +3757,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>374</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>267005</v>
+        <v>188224</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3250,10 +3772,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>753</v>
+        <v>534</v>
       </c>
       <c r="N12" s="7">
-        <v>547228</v>
+        <v>376796</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3267,55 +3789,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1039</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>726525</v>
+        <v>3816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>1034</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>686375</v>
+        <v>3456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
-        <v>2073</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>1412900</v>
+        <v>7271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,49 +3846,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7">
-        <v>15499</v>
+        <v>168825</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="I14" s="7">
-        <v>13398</v>
+        <v>169079</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>42</v>
+        <v>468</v>
       </c>
       <c r="N14" s="7">
-        <v>28897</v>
+        <v>337906</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,55 +3897,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>172641</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>245</v>
+      </c>
+      <c r="I15" s="7">
+        <v>172535</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>478</v>
+      </c>
+      <c r="N15" s="7">
+        <v>345177</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15499</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="7">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13398</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" s="7">
+        <v>42</v>
+      </c>
+      <c r="N16" s="7">
+        <v>28897</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1039</v>
+      </c>
+      <c r="D17" s="7">
+        <v>726525</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1034</v>
+      </c>
+      <c r="I17" s="7">
+        <v>686375</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2073</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1412900</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1061</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>742024</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1054</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>699773</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2115</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1441797</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3436,8 +4119,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD9D5E9-D7D9-4075-8098-2B605F4E262B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BFE7E1-D3A4-4456-9A7A-BBA4BA7947D6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3453,7 +4136,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3554,49 +4237,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>113475</v>
+        <v>3868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>102544</v>
+        <v>1259</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
-        <v>417</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>216019</v>
+        <v>5127</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,49 +4288,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D5" s="7">
-        <v>4463</v>
+        <v>54635</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="I5" s="7">
-        <v>1259</v>
+        <v>56110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="N5" s="7">
-        <v>5722</v>
+        <v>110744</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,10 +4339,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3671,10 +4354,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3686,10 +4369,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3709,49 +4392,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>199783</v>
+        <v>3010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="H7" s="7">
-        <v>275</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>194133</v>
+        <v>2609</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="M7" s="7">
-        <v>539</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>393918</v>
+        <v>5619</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,49 +4443,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="D8" s="7">
-        <v>5272</v>
+        <v>172289</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="I8" s="7">
-        <v>4134</v>
+        <v>156156</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>525</v>
       </c>
       <c r="N8" s="7">
-        <v>9405</v>
+        <v>328444</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,10 +4494,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3826,10 +4509,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3841,10 +4524,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3864,49 +4547,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>469</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>395192</v>
+        <v>5098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
-        <v>449</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>339360</v>
+        <v>6023</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
-        <v>918</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>734553</v>
+        <v>11122</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,49 +4598,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="D11" s="7">
-        <v>7518</v>
+        <v>197380</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="I11" s="7">
-        <v>12281</v>
+        <v>170922</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>463</v>
       </c>
       <c r="N11" s="7">
-        <v>19798</v>
+        <v>368302</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,10 +4649,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3981,10 +4664,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>463</v>
+        <v>234</v>
       </c>
       <c r="I12" s="7">
-        <v>351641</v>
+        <v>176945</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3996,10 +4679,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>942</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>754351</v>
+        <v>379424</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4013,55 +4696,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>953</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>708452</v>
+        <v>5276</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
-        <v>921</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>636038</v>
+        <v>7782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
-        <v>1874</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>1344490</v>
+        <v>13058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>107</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,49 +4753,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="D14" s="7">
-        <v>17252</v>
+        <v>284148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="I14" s="7">
-        <v>17674</v>
+        <v>252851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
-        <v>46</v>
+        <v>669</v>
       </c>
       <c r="N14" s="7">
-        <v>34926</v>
+        <v>536999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,55 +4804,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17252</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="7">
+        <v>22</v>
+      </c>
+      <c r="I16" s="7">
+        <v>17674</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M16" s="7">
+        <v>46</v>
+      </c>
+      <c r="N16" s="7">
+        <v>34926</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>953</v>
+      </c>
+      <c r="D17" s="7">
+        <v>708452</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="7">
+        <v>921</v>
+      </c>
+      <c r="I17" s="7">
+        <v>636038</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1874</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1344490</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>977</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>725704</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>943</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>653712</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1920</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1379416</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP7_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP7_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3F87F7-6B5C-4F42-AC7E-EAA87A46ED20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9234ECF-BD31-44FE-B504-DDAEB6CEF62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{620173DC-B895-4C3E-8873-BC1B3150D2A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58A7895A-EE3F-4411-8AA5-2395EEB9F4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="330">
   <si>
     <t>Menores según si su salud general es regular o mala en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>1,01%</t>
@@ -89,901 +89,943 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>99,19%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2015 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>4,44%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>96,38%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>95,56%</t>
   </si>
   <si>
     <t>96,54%</t>
@@ -1398,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA7D652-2861-4184-84F7-894FA03B81F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB75C3-7B15-47CB-A706-5A7FECA2F3B4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1847,13 +1889,13 @@
         <v>2700</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -1862,13 +1904,13 @@
         <v>10625</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1925,13 @@
         <v>133591</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
@@ -1898,13 +1940,13 @@
         <v>124848</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>387</v>
@@ -1913,13 +1955,13 @@
         <v>258438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,7 +2017,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1987,13 +2029,13 @@
         <v>6024</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2002,13 +2044,13 @@
         <v>5905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2017,13 +2059,13 @@
         <v>11930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2080,13 @@
         <v>198714</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>277</v>
@@ -2053,13 +2095,13 @@
         <v>188192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>576</v>
@@ -2068,13 +2110,13 @@
         <v>386905</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2184,13 @@
         <v>25414</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2157,13 +2199,13 @@
         <v>11645</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -2172,13 +2214,13 @@
         <v>37059</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2235,13 @@
         <v>694476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>1000</v>
@@ -2208,13 +2250,13 @@
         <v>669376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>2044</v>
@@ -2223,13 +2265,13 @@
         <v>1363852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,7 +2327,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2305,7 +2347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBDF839-E8B9-4F3A-B6AC-E9E2D537D177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E54C395-EF02-4B27-AEF3-C1BC1B383C66}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2322,7 +2364,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2429,13 +2471,13 @@
         <v>5118</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2444,13 +2486,13 @@
         <v>4755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -2459,13 +2501,13 @@
         <v>9873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2522,13 @@
         <v>140157</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>212</v>
@@ -2495,28 +2537,28 @@
         <v>142006</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>410</v>
       </c>
       <c r="N5" s="7">
-        <v>282163</v>
+        <v>282162</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,7 +2600,7 @@
         <v>425</v>
       </c>
       <c r="N6" s="7">
-        <v>292036</v>
+        <v>292035</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2584,13 +2626,13 @@
         <v>1997</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2599,13 +2641,13 @@
         <v>4826</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -2614,13 +2656,13 @@
         <v>6823</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2677,13 @@
         <v>264048</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>331</v>
@@ -2650,13 +2692,13 @@
         <v>229939</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>698</v>
@@ -2665,13 +2707,13 @@
         <v>493987</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2781,13 @@
         <v>4887</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2754,13 +2796,13 @@
         <v>3513</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2769,13 +2811,13 @@
         <v>8400</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2832,13 @@
         <v>153684</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>218</v>
@@ -2805,13 +2847,13 @@
         <v>153530</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>439</v>
@@ -2820,13 +2862,13 @@
         <v>307214</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,7 +2924,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2894,13 +2936,13 @@
         <v>6724</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2909,13 +2951,13 @@
         <v>3526</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2924,13 +2966,13 @@
         <v>10250</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2987,13 @@
         <v>173231</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>237</v>
@@ -2978,10 +3020,10 @@
         <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3106,13 @@
         <v>16619</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -3079,13 +3121,13 @@
         <v>35346</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3142,13 @@
         <v>731120</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H17" s="7">
         <v>998</v>
@@ -3115,13 +3157,13 @@
         <v>692551</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>2039</v>
@@ -3130,13 +3172,13 @@
         <v>1423670</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,7 +3234,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3212,7 +3254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674EA274-ABB8-491A-862E-50627A8F71BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD035FC-9B9F-4682-B480-C0C0E34DF37F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3229,7 +3271,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3336,13 +3378,13 @@
         <v>4542</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3351,13 +3393,13 @@
         <v>2362</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3366,13 +3408,13 @@
         <v>6904</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3429,13 @@
         <v>118854</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
@@ -3402,13 +3444,13 @@
         <v>128567</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>385</v>
@@ -3417,10 +3459,10 @@
         <v>247421</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>204</v>
@@ -3649,10 +3691,10 @@
         <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3661,13 +3703,13 @@
         <v>2747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3676,13 +3718,13 @@
         <v>7348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3739,13 @@
         <v>183971</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>267</v>
@@ -3712,13 +3754,13 @@
         <v>185477</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>524</v>
@@ -3727,13 +3769,13 @@
         <v>369448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,7 +3831,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3801,13 +3843,13 @@
         <v>3816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3816,13 +3858,13 @@
         <v>3456</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3831,13 +3873,13 @@
         <v>7271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3894,13 @@
         <v>168825</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>240</v>
@@ -3867,13 +3909,13 @@
         <v>169079</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -3882,13 +3924,13 @@
         <v>337906</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3998,13 @@
         <v>15499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3971,13 +4013,13 @@
         <v>13398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3986,13 +4028,13 @@
         <v>28897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4049,13 @@
         <v>726525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>1034</v>
@@ -4022,13 +4064,13 @@
         <v>686375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>2073</v>
@@ -4037,13 +4079,13 @@
         <v>1412900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,7 +4141,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BFE7E1-D3A4-4456-9A7A-BBA4BA7947D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5B1A6D-B811-4A21-939D-6F2838746F2B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4136,7 +4178,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4243,13 +4285,13 @@
         <v>3868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4258,13 +4300,13 @@
         <v>1259</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4273,13 +4315,13 @@
         <v>5127</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4336,13 @@
         <v>54635</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -4309,10 +4351,10 @@
         <v>56110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4324,13 +4366,13 @@
         <v>110744</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4440,13 @@
         <v>3010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4416,10 +4458,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4428,13 +4470,13 @@
         <v>5619</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,10 +4491,10 @@
         <v>172289</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -4467,10 +4509,10 @@
         <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>525</v>
@@ -4479,13 +4521,13 @@
         <v>328444</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4595,13 @@
         <v>5098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4568,13 +4610,13 @@
         <v>6023</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4583,13 +4625,13 @@
         <v>11122</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4646,13 @@
         <v>197380</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
         <v>226</v>
@@ -4619,13 +4661,13 @@
         <v>170922</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="M11" s="7">
         <v>463</v>
@@ -4634,13 +4676,13 @@
         <v>368302</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,7 +4738,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4708,13 +4750,13 @@
         <v>5276</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4723,13 +4765,13 @@
         <v>7782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4738,13 +4780,13 @@
         <v>13058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4801,13 @@
         <v>284148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -4774,13 +4816,13 @@
         <v>252851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -4789,13 +4831,13 @@
         <v>536999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4905,13 @@
         <v>17252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4878,13 +4920,13 @@
         <v>17674</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4893,13 +4935,13 @@
         <v>34926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4956,13 @@
         <v>708452</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>921</v>
@@ -4929,13 +4971,13 @@
         <v>636038</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>1874</v>
@@ -4944,13 +4986,13 @@
         <v>1344490</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,7 +5048,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP7_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP7_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9234ECF-BD31-44FE-B504-DDAEB6CEF62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D38761-1186-4D2D-A092-C9E46D499E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58A7895A-EE3F-4411-8AA5-2395EEB9F4A0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C6A64638-88B3-496D-AE9E-AFBDC706022B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según si su salud general es regular o mala en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,961 +74,961 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>97,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2016 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB75C3-7B15-47CB-A706-5A7FECA2F3B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB354C84-2953-4B19-B6D9-701862C386AC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1558,10 +1558,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>2664</v>
+        <v>1070</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1573,10 +1573,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1070</v>
+        <v>2664</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1609,10 +1609,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D5" s="7">
-        <v>118716</v>
+        <v>105101</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1624,10 +1624,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7">
-        <v>105101</v>
+        <v>118716</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1660,25 +1660,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1713,10 +1713,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>8801</v>
+        <v>1970</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1728,10 +1728,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>1970</v>
+        <v>8801</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1764,10 +1764,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D8" s="7">
-        <v>243456</v>
+        <v>251235</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1779,10 +1779,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="I8" s="7">
-        <v>251235</v>
+        <v>243456</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1815,25 +1815,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>252257</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>7924</v>
+        <v>2700</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1883,19 +1883,19 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>2700</v>
+        <v>7924</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -1904,13 +1904,13 @@
         <v>10625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,34 +1919,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>187</v>
+      </c>
+      <c r="D11" s="7">
+        <v>124848</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>200</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>133591</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7">
-        <v>187</v>
-      </c>
-      <c r="I11" s="7">
-        <v>124848</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>387</v>
@@ -1955,13 +1955,13 @@
         <v>258438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,25 +1970,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2026,31 +2026,31 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>6024</v>
+        <v>5905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>5905</v>
+        <v>6024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2059,13 +2059,13 @@
         <v>11930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,34 +2074,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>277</v>
+      </c>
+      <c r="D14" s="7">
+        <v>188192</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
         <v>299</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>198714</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="7">
-        <v>277</v>
-      </c>
-      <c r="I14" s="7">
-        <v>188192</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>576</v>
@@ -2110,13 +2110,13 @@
         <v>386905</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,25 +2125,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>308</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>204738</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2178,28 +2178,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11645</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="7">
         <v>38</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>25414</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7">
-        <v>18</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11645</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>88</v>
@@ -2229,10 +2229,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1044</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="7">
-        <v>694476</v>
+        <v>669376</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2241,22 +2241,22 @@
         <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1044</v>
+      </c>
+      <c r="I17" s="7">
+        <v>694476</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="7">
-        <v>669376</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>2044</v>
@@ -2265,13 +2265,13 @@
         <v>1363852</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,25 +2280,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1082</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>719890</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +2347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E54C395-EF02-4B27-AEF3-C1BC1B383C66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0054CF-2B73-40E5-949E-8AA8497F92CC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2364,7 +2364,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2465,34 +2465,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4755</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>5118</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="7">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4755</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -2501,13 +2501,13 @@
         <v>9873</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,34 +2516,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>212</v>
+      </c>
+      <c r="D5" s="7">
+        <v>142006</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="7">
         <v>198</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>140157</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="7">
-        <v>212</v>
-      </c>
-      <c r="I5" s="7">
-        <v>142006</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>410</v>
@@ -2552,13 +2552,13 @@
         <v>282162</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,25 +2567,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>219</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>206</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>145275</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>219</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2620,34 +2620,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4826</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1997</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4826</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -2656,13 +2656,13 @@
         <v>6823</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,34 +2671,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>331</v>
+      </c>
+      <c r="D8" s="7">
+        <v>229939</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="7">
         <v>367</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>264048</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="H8" s="7">
-        <v>331</v>
-      </c>
-      <c r="I8" s="7">
-        <v>229939</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>698</v>
@@ -2707,13 +2707,13 @@
         <v>493987</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,25 +2722,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>338</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234765</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>370</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>266045</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>338</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2775,34 +2775,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3513</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4887</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3513</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2811,13 +2811,13 @@
         <v>8400</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,34 +2826,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>218</v>
+      </c>
+      <c r="D11" s="7">
+        <v>153530</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="7">
         <v>221</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>153684</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="7">
-        <v>218</v>
-      </c>
-      <c r="I11" s="7">
-        <v>153530</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>439</v>
@@ -2862,13 +2862,13 @@
         <v>307214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,25 +2877,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2924,40 +2924,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3526</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6724</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3526</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2966,13 +2966,13 @@
         <v>10250</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,34 +2981,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>237</v>
+      </c>
+      <c r="D14" s="7">
+        <v>167075</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="7">
         <v>255</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>173231</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="7">
-        <v>237</v>
-      </c>
-      <c r="I14" s="7">
-        <v>167075</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>492</v>
@@ -3017,13 +3017,13 @@
         <v>340306</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,25 +3032,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>242</v>
+      </c>
+      <c r="D15" s="7">
+        <v>170601</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>265</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>179955</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>242</v>
-      </c>
-      <c r="I15" s="7">
-        <v>170601</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3085,34 +3085,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <v>16619</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="7">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>18726</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="7">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7">
-        <v>16619</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -3121,13 +3121,13 @@
         <v>35346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,34 +3136,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>998</v>
+      </c>
+      <c r="D17" s="7">
+        <v>692551</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="7">
         <v>1041</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>731120</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="7">
-        <v>998</v>
-      </c>
-      <c r="I17" s="7">
-        <v>692551</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>2039</v>
@@ -3172,13 +3172,13 @@
         <v>1423670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,25 +3187,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1022</v>
+      </c>
+      <c r="D18" s="7">
+        <v>709170</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1069</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>749846</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1022</v>
-      </c>
-      <c r="I18" s="7">
-        <v>709170</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3254,7 +3254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD035FC-9B9F-4682-B480-C0C0E34DF37F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA7C8BC-3B78-4634-AC80-F09A484543A5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3271,7 +3271,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3372,34 +3372,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2362</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>4542</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2362</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3408,13 +3408,13 @@
         <v>6904</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,34 +3423,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>206</v>
+      </c>
+      <c r="D5" s="7">
+        <v>128567</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="7">
         <v>179</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>118854</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="7">
-        <v>206</v>
-      </c>
-      <c r="I5" s="7">
-        <v>128567</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>385</v>
@@ -3459,13 +3459,13 @@
         <v>247421</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,25 +3474,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>210</v>
+      </c>
+      <c r="D6" s="7">
+        <v>130929</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>186</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>123396</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>210</v>
-      </c>
-      <c r="I6" s="7">
-        <v>130929</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3527,34 +3527,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4833</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2540</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4833</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3563,13 +3563,13 @@
         <v>7373</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,34 +3578,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>321</v>
+      </c>
+      <c r="D8" s="7">
+        <v>203251</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="7">
         <v>375</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>254875</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="7">
-        <v>321</v>
-      </c>
-      <c r="I8" s="7">
-        <v>203251</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
@@ -3614,13 +3614,13 @@
         <v>458126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,25 +3629,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>328</v>
+      </c>
+      <c r="D9" s="7">
+        <v>208084</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>379</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>257415</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>328</v>
-      </c>
-      <c r="I9" s="7">
-        <v>208084</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3682,34 +3682,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2747</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4601</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2747</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3718,13 +3718,13 @@
         <v>7348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,49 +3733,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>267</v>
+      </c>
+      <c r="D11" s="7">
+        <v>185477</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="7">
         <v>257</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>183971</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="7">
-        <v>267</v>
-      </c>
-      <c r="I11" s="7">
-        <v>185477</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>524</v>
       </c>
       <c r="N11" s="7">
-        <v>369448</v>
+        <v>369449</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,25 +3784,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>271</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188224</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>271</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188224</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3817,7 +3817,7 @@
         <v>534</v>
       </c>
       <c r="N12" s="7">
-        <v>376796</v>
+        <v>376797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3840,31 +3840,31 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3816</v>
+        <v>3456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>3456</v>
+        <v>3816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3873,13 +3873,13 @@
         <v>7271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,34 +3888,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>240</v>
+      </c>
+      <c r="D14" s="7">
+        <v>169079</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="7">
         <v>228</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>168825</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" s="7">
-        <v>240</v>
-      </c>
-      <c r="I14" s="7">
-        <v>169079</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -3924,13 +3924,13 @@
         <v>337906</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,25 +3939,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>245</v>
+      </c>
+      <c r="D15" s="7">
+        <v>172535</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>233</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>172641</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>245</v>
-      </c>
-      <c r="I15" s="7">
-        <v>172535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3992,34 +3992,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13398</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="7">
         <v>22</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>15499</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13398</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -4028,13 +4028,13 @@
         <v>28897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,34 +4043,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1034</v>
+      </c>
+      <c r="D17" s="7">
+        <v>686375</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="7">
         <v>1039</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>726525</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I17" s="7">
-        <v>686375</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>2073</v>
@@ -4079,13 +4079,13 @@
         <v>1412900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,25 +4094,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1054</v>
+      </c>
+      <c r="D18" s="7">
+        <v>699773</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>742024</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1054</v>
-      </c>
-      <c r="I18" s="7">
-        <v>699773</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4161,7 +4161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5B1A6D-B811-4A21-939D-6F2838746F2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCF713C-EDF2-469C-AA02-011196737C21}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4178,7 +4178,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4279,49 +4279,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1333</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
-        <v>3868</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
       <c r="I4" s="7">
-        <v>1259</v>
+        <v>4504</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>5127</v>
+        <v>5837</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,49 +4330,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>107</v>
+      </c>
+      <c r="D5" s="7">
+        <v>56178</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>110</v>
       </c>
-      <c r="D5" s="7">
-        <v>54635</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="7">
-        <v>107</v>
-      </c>
       <c r="I5" s="7">
-        <v>56110</v>
+        <v>56940</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
       </c>
       <c r="N5" s="7">
-        <v>110744</v>
+        <v>113118</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,25 +4381,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4414,7 +4414,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4434,49 +4434,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2745</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
-        <v>3010</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
       <c r="I7" s="7">
-        <v>2609</v>
+        <v>3313</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>5619</v>
+        <v>6058</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,49 +4485,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>254</v>
+      </c>
+      <c r="D8" s="7">
+        <v>156554</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="7">
         <v>271</v>
       </c>
-      <c r="D8" s="7">
-        <v>172289</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>254</v>
-      </c>
       <c r="I8" s="7">
-        <v>156156</v>
+        <v>179241</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M8" s="7">
         <v>525</v>
       </c>
       <c r="N8" s="7">
-        <v>328444</v>
+        <v>335795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,25 +4536,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4569,7 +4569,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4589,49 +4589,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5991</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
-        <v>5098</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
       <c r="I10" s="7">
-        <v>6023</v>
+        <v>5487</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>11122</v>
+        <v>11478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,49 +4640,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>226</v>
+      </c>
+      <c r="D11" s="7">
+        <v>167897</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H11" s="7">
         <v>237</v>
       </c>
-      <c r="D11" s="7">
-        <v>197380</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H11" s="7">
-        <v>226</v>
-      </c>
       <c r="I11" s="7">
-        <v>170922</v>
+        <v>207003</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
         <v>463</v>
       </c>
       <c r="N11" s="7">
-        <v>368302</v>
+        <v>374900</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>307</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,25 +4691,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>234</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>234</v>
-      </c>
       <c r="I12" s="7">
-        <v>176945</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4724,7 +4724,7 @@
         <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>379424</v>
+        <v>386378</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4738,55 +4738,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11076</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
-        <v>5276</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
       <c r="I13" s="7">
-        <v>7782</v>
+        <v>5365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>301</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>13058</v>
+        <v>16440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,49 +4795,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>334</v>
+      </c>
+      <c r="D14" s="7">
+        <v>264382</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" s="7">
         <v>335</v>
       </c>
-      <c r="D14" s="7">
-        <v>284148</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H14" s="7">
-        <v>334</v>
-      </c>
       <c r="I14" s="7">
-        <v>252851</v>
+        <v>300118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
       </c>
       <c r="N14" s="7">
-        <v>536999</v>
+        <v>564500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,7 +4849,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4864,7 +4864,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4879,7 +4879,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4899,49 +4899,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21144</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H16" s="7">
         <v>24</v>
       </c>
-      <c r="D16" s="7">
-        <v>17252</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="7">
-        <v>22</v>
-      </c>
       <c r="I16" s="7">
-        <v>17674</v>
+        <v>18669</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
       </c>
       <c r="N16" s="7">
-        <v>34926</v>
+        <v>39813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,49 +4950,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>921</v>
+      </c>
+      <c r="D17" s="7">
+        <v>645011</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="7">
         <v>953</v>
       </c>
-      <c r="D17" s="7">
-        <v>708452</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>743303</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="7">
-        <v>921</v>
-      </c>
-      <c r="I17" s="7">
-        <v>636038</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>1874</v>
       </c>
       <c r="N17" s="7">
-        <v>1344490</v>
+        <v>1388314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,25 +5001,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>943</v>
+      </c>
+      <c r="D18" s="7">
+        <v>666155</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>977</v>
       </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>943</v>
-      </c>
       <c r="I18" s="7">
-        <v>653712</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5034,7 +5034,7 @@
         <v>1920</v>
       </c>
       <c r="N18" s="7">
-        <v>1379416</v>
+        <v>1428127</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
